--- a/Documents/2조 요구사항정의서.xlsx
+++ b/Documents/2조 요구사항정의서.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mg/qLv3Pi+x8KEDdp5SDIFPVPlHrg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjCjOIq6nxUkRTa+Huya4PVGtugjA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="129">
   <si>
     <t>기능 설계서</t>
   </si>
@@ -1157,7 +1157,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1170,7 +1170,7 @@
     <col customWidth="1" min="4" max="4" width="35.29"/>
     <col customWidth="1" min="5" max="5" width="73.86"/>
     <col customWidth="1" min="6" max="6" width="9.57"/>
-    <col customWidth="1" min="7" max="7" width="7.86"/>
+    <col customWidth="1" min="7" max="7" width="11.57"/>
     <col customWidth="1" min="8" max="27" width="8.71"/>
   </cols>
   <sheetData>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C2" s="5">
         <f>today()</f>
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
@@ -29897,27 +29897,27 @@
     <mergeCell ref="G4:G11"/>
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="G17:G21"/>
+    <mergeCell ref="G22:G25"/>
     <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B1:H1"/>
     <mergeCell ref="B4:B11"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C14"/>
     <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B1:H1"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -29925,7 +29925,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -29974,7 +29974,7 @@
       </c>
       <c r="C2" s="5">
         <f>today()</f>
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
@@ -58550,30 +58550,30 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G4:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C16"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="G4:G11"/>
-    <mergeCell ref="B1:H1"/>
     <mergeCell ref="B12:B13"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -58582,6 +58582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -58604,15 +58605,14 @@
       </c>
       <c r="B2" s="5">
         <f>today()</f>
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -58630,15 +58630,12 @@
         <v>7</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="91" t="s">
+      <c r="F3" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="G3" s="92" t="s">
         <v>122</v>
       </c>
     </row>
@@ -58655,16 +58652,13 @@
       <c r="D4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="F4" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="94" t="s">
+      <c r="G4" s="94" t="s">
         <v>124</v>
       </c>
     </row>
@@ -58676,10 +58670,7 @@
       <c r="D5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="H5" s="95"/>
+      <c r="G5" s="95"/>
     </row>
     <row r="6">
       <c r="A6" s="21"/>
@@ -58689,10 +58680,7 @@
       <c r="D6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="H6" s="95"/>
+      <c r="G6" s="95"/>
     </row>
     <row r="7">
       <c r="A7" s="21"/>
@@ -58705,10 +58693,7 @@
       <c r="D7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="H7" s="95"/>
+      <c r="G7" s="95"/>
     </row>
     <row r="8">
       <c r="A8" s="21"/>
@@ -58718,10 +58703,7 @@
       <c r="D8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="H8" s="95"/>
+      <c r="G8" s="95"/>
     </row>
     <row r="9">
       <c r="A9" s="21"/>
@@ -58734,10 +58716,7 @@
       <c r="D9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="H9" s="95"/>
+      <c r="G9" s="95"/>
     </row>
     <row r="10">
       <c r="A10" s="21"/>
@@ -58747,10 +58726,7 @@
       <c r="D10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="H10" s="95"/>
+      <c r="G10" s="95"/>
     </row>
     <row r="11">
       <c r="A11" s="25"/>
@@ -58761,11 +58737,8 @@
       <c r="D11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="F11" s="26"/>
-      <c r="H11" s="95"/>
+      <c r="E11" s="26"/>
+      <c r="G11" s="95"/>
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
@@ -58780,16 +58753,13 @@
       <c r="D12" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="32">
-        <v>2.0</v>
-      </c>
-      <c r="F12" s="32" t="s">
+      <c r="E12" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="F12" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="96" t="s">
+      <c r="G12" s="96" t="s">
         <v>124</v>
       </c>
     </row>
@@ -58801,10 +58771,7 @@
       <c r="D13" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="H13" s="95"/>
+      <c r="G13" s="95"/>
     </row>
     <row r="14">
       <c r="A14" s="21"/>
@@ -58814,10 +58781,7 @@
       <c r="D14" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="H14" s="95"/>
+      <c r="G14" s="95"/>
     </row>
     <row r="15">
       <c r="A15" s="21"/>
@@ -58830,13 +58794,10 @@
       <c r="D15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="F15" s="17" t="s">
+      <c r="E15" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="95"/>
+      <c r="G15" s="95"/>
     </row>
     <row r="16">
       <c r="A16" s="36"/>
@@ -58849,12 +58810,9 @@
       <c r="D16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="40">
-        <v>1.0</v>
-      </c>
+      <c r="E16" s="41"/>
       <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="97"/>
+      <c r="G16" s="97"/>
     </row>
     <row r="17">
       <c r="A17" s="43" t="s">
@@ -58869,16 +58827,13 @@
       <c r="D17" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="32">
-        <v>4.0</v>
-      </c>
-      <c r="F17" s="46" t="s">
+      <c r="E17" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="93" t="s">
+      <c r="F17" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="H17" s="98" t="s">
+      <c r="G17" s="98" t="s">
         <v>126</v>
       </c>
     </row>
@@ -58890,10 +58845,7 @@
       <c r="D18" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="H18" s="95"/>
+      <c r="G18" s="95"/>
     </row>
     <row r="19">
       <c r="A19" s="21"/>
@@ -58903,10 +58855,7 @@
       <c r="D19" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="H19" s="95"/>
+      <c r="G19" s="95"/>
     </row>
     <row r="20">
       <c r="A20" s="21"/>
@@ -58919,10 +58868,7 @@
       <c r="D20" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="H20" s="95"/>
+      <c r="G20" s="95"/>
     </row>
     <row r="21">
       <c r="A21" s="36"/>
@@ -58933,11 +58879,8 @@
       <c r="D21" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="F21" s="41"/>
-      <c r="H21" s="95"/>
+      <c r="E21" s="41"/>
+      <c r="G21" s="95"/>
     </row>
     <row r="22">
       <c r="A22" s="28" t="s">
@@ -58952,16 +58895,13 @@
       <c r="D22" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="32">
-        <v>4.0</v>
-      </c>
-      <c r="F22" s="32" t="s">
+      <c r="E22" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="F22" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="96" t="s">
+      <c r="G22" s="96" t="s">
         <v>125</v>
       </c>
     </row>
@@ -58973,10 +58913,7 @@
       <c r="D23" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="H23" s="95"/>
+      <c r="G23" s="95"/>
     </row>
     <row r="24">
       <c r="A24" s="21"/>
@@ -58986,10 +58923,7 @@
       <c r="D24" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="H24" s="95"/>
+      <c r="G24" s="95"/>
     </row>
     <row r="25">
       <c r="A25" s="36"/>
@@ -59000,14 +58934,11 @@
       <c r="D25" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="40">
-        <v>2.0</v>
-      </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="99" t="s">
+      <c r="E25" s="41"/>
+      <c r="F25" s="99" t="s">
         <v>126</v>
       </c>
-      <c r="H25" s="100" t="s">
+      <c r="G25" s="100" t="s">
         <v>127</v>
       </c>
     </row>
@@ -59024,16 +58955,13 @@
       <c r="D26" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="32">
-        <v>5.0</v>
-      </c>
-      <c r="F26" s="32" t="s">
+      <c r="E26" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="F26" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="H26" s="101" t="s">
+      <c r="G26" s="101" t="s">
         <v>128</v>
       </c>
     </row>
@@ -59046,46 +58974,46 @@
       <c r="D27" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="40">
-        <v>5.0</v>
-      </c>
+      <c r="E27" s="41"/>
       <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="97"/>
+      <c r="G27" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="E4:E11"/>
+    <mergeCell ref="G4:G11"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A4:A11"/>
     <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G22:G24"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A22:A25"/>
     <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="F4:F11"/>
-    <mergeCell ref="G4:G11"/>
-    <mergeCell ref="H4:H11"/>
-    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="F12:F16"/>
     <mergeCell ref="G12:G16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E21"/>
     <mergeCell ref="G17:G21"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="G26:G27"/>
   </mergeCells>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>